--- a/data/trans_dic/P27-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P27-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido algún tipo de medicamentos en las últimas dos semanas</t>
+          <t>Población que ha consumido algún tipo de medicamentos en las últimas dos semanas (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>48,97%</t>
+          <t>48,64%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>44,1%</t>
+          <t>44,34%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>52,11%</t>
+          <t>52,29%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>60,19%</t>
+          <t>49,89%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>58,88%</t>
+          <t>60,15%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>57,76%</t>
+          <t>49,61%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>63,81%</t>
+          <t>59,23%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>64,92%</t>
+          <t>57,94%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>54,14%</t>
+          <t>63,62%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>51,29%</t>
+          <t>54,09%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>58,25%</t>
+          <t>64,78%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>62,6%</t>
+          <t>55,55%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>54,17%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>51,5%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>58,23%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>52,09%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>62,5%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>52,63%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>44,61; 53,91</t>
+          <t>43,65; 53,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>40,33; 48,57</t>
+          <t>40,25; 48,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>47,5; 56,75</t>
+          <t>47,78; 56,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>56,28; 64,01</t>
+          <t>45,08; 55,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>54,82; 62,72</t>
+          <t>56,21; 64,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>53,75; 61,24</t>
+          <t>45,77; 53,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>60,46; 67,53</t>
+          <t>55,41; 63,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>61,33; 68,34</t>
+          <t>54,24; 61,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>51,01; 57,16</t>
+          <t>59,88; 66,93</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>48,7; 53,93</t>
+          <t>49,88; 58,3</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>55,1; 61,15</t>
+          <t>60,93; 68,16</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>60,04; 65,16</t>
+          <t>52,13; 58,89</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>51,39; 57,39</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>48,84; 54,36</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>55,4; 61,12</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>48,8; 55,43</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>59,95; 65,21</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>49,85; 55,47</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>46,36%</t>
+          <t>46,23%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>46,13%</t>
+          <t>46,04%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>50,24%</t>
+          <t>50,71%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>49,96%</t>
+          <t>46,27%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>55,13%</t>
+          <t>49,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>59,04%</t>
+          <t>45,26%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>62,21%</t>
+          <t>55,39%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>65,01%</t>
+          <t>59,35%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>50,77%</t>
+          <t>62,63%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>52,58%</t>
+          <t>48,52%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>56,23%</t>
+          <t>65,02%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>57,12%</t>
+          <t>53,88%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>50,83%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>52,68%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>56,67%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>47,4%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>57,11%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>49,36%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>41,15; 52,26</t>
+          <t>40,9; 51,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>41,53; 51,03</t>
+          <t>41,53; 51,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>45,17; 55,61</t>
+          <t>45,71; 55,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>42,47; 56,62</t>
+          <t>41,02; 51,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>50,9; 59,41</t>
+          <t>41,93; 56,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>54,75; 63,12</t>
+          <t>38,3; 52,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>57,88; 66,46</t>
+          <t>50,51; 59,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>58,33; 71,48</t>
+          <t>55,29; 63,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>47,29; 54,52</t>
+          <t>57,83; 66,35</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>49,37; 55,86</t>
+          <t>43,32; 53,23</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>53,09; 59,48</t>
+          <t>58,52; 71,27</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>52,3; 62,16</t>
+          <t>46,37; 61,27</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>47,38; 54,34</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>49,34; 55,93</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>53,54; 59,92</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>43,79; 50,87</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>52,1; 61,65</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>44,32; 54,31</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>43,36%</t>
+          <t>41,96%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>55,92%</t>
+          <t>55,66%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>55,22%</t>
+          <t>56,6%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>35,6%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>56,77%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>53,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>57,83%</t>
+          <t>54,8%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>53,52%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>57,57%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>54,34%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>49,98%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>54,67%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>56,51%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>48,3%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>54,6%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>57,08%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>44,85%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>32,84; 53,66</t>
+          <t>32,87; 51,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>46,6; 64,27</t>
+          <t>45,07; 64,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>45,98; 64,08</t>
+          <t>47,1; 66,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>25,35; 50,86</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>47,8; 64,98</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>46,38; 60,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>49,52; 64,91</t>
+          <t>46,5; 62,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>46,05; 61,04</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>49,37; 65,78</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>44,17; 62,7</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>42,03; 56,75</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>48,86; 60,02</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>50,49; 62,98</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>41,66; 55,09</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>48,12; 60,21</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>51,27; 63,33</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>37,27; 53,44</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>47,24%</t>
+          <t>46,86%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>46,36%</t>
+          <t>46,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>51,74%</t>
+          <t>52,19%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>57,74%</t>
+          <t>46,68%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>57,19%</t>
+          <t>57,7%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>57,75%</t>
+          <t>48,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>62,52%</t>
+          <t>57,25%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>64,94%</t>
+          <t>57,97%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>62,55%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>51,97%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>64,83%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>55,19%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>52,17%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
           <t>52,33%</t>
         </is>
       </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>52,19%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>57,25%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>61,35%</t>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>57,48%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>49,38%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>61,27%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>51,88%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>43,75; 50,62</t>
+          <t>43,75; 50,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>43,28; 49,56</t>
+          <t>43,66; 49,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>48,66; 54,97</t>
+          <t>48,93; 55,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>54,51; 61,1</t>
+          <t>43,49; 50,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>54,08; 59,96</t>
+          <t>54,01; 60,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>55,19; 60,36</t>
+          <t>44,95; 52,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>59,94; 65,19</t>
+          <t>54,54; 59,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>61,75; 67,95</t>
+          <t>55,36; 60,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>50,05; 54,78</t>
+          <t>59,97; 64,76</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>50,17; 54,19</t>
+          <t>48,79; 55,07</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>55,25; 59,3</t>
+          <t>61,57; 68,02</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>58,94; 63,75</t>
+          <t>52,03; 58,2</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>49,99; 54,55</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>50,39; 54,35</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>55,22; 59,45</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>46,89; 52,13</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>58,88; 63,73</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>49,53; 54,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido algún tipo de medicamentos en las últimas dos semanas (tasa de respuesta: 99,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>292.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>315.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>356.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>417.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>344.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>409.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>493.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>537.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>354.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>564.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>490.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>701.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>808.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>893.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>606.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>981.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>834.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>800693</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>728872</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>860290</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>816858</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>137869</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>113344</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1066340</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1059589</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1154079</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>973926</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>153476</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>131398</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1867033</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1788461</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>2014369</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>1790784</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>291344</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>244742</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>718593; 874154</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>661695; 793749</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>786044; 929991</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>738082; 913298</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>128824; 146904</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>104584; 122551</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>997633; 1139023</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>991981; 1119905</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1086284; 1214163</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>898232; 1049787</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>144355; 161495</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>123289; 139297</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1771336; 1978009</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>1695981; 1887717</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>1916401; 2114259</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>1677713; 1905454</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>279426; 303958</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>231817; 257926</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>211.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>275.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>286.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>383.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>399.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>497.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>633.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>674.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>452.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>273.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>635282</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>634923</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>699348</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>640028</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>36099</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>33162</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>766259</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>815615</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>862874</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>675119</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>42627</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>35751</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1401541</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1450538</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1562222</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>1315148</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>78727</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>68914</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>561989; 709475</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>572704; 704906</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>630422; 769591</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>567422; 717488</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>30311; 40869</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>28066; 38224</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>698720; 827481</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>759804; 869652</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>796695; 914032</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>602862; 740744</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>38369; 46725</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>30766; 40657</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1306534; 1498258</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1358590; 1539871</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1475881; 1651771</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1215170; 1411645</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>71819; 84986</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>61885; 75833</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>175730</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>235327</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>239294</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>150531</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>223844</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>219190</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>237121</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>223843</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>399573</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>454517</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>476415</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>374374</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>137666; 216816</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>190544; 272853</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>199128; 279486</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>107175; 215040</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>189968; 257311</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>188598; 250002</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>203365; 270926</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>181947; 258250</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>344676; 455704</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>400551; 501200</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>427982; 528609</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>311116; 446087</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>553.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>651.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>711.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>487.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>538.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>464.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>772.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>968.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1036.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>671.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>716.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>611.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>1325.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>1619.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>1747.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>1158.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>1254.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>1075.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1611705</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1599123</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1798932</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1607417</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>173968</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>146506</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2056443</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2094393</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>2254073</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1872889</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>196102</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>167150</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>3668147</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>3693516</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>4053006</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>3480305</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>370071</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>313656</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1504667; 1729553</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1504579; 1710332</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1686633; 1905085</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1497455; 1754481</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>162851; 183885</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>135641; 157832</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1959036; 2148391</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1999913; 2180468</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>2161087; 2333540</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1758342; 1984856</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>186234; 205750</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>157575; 176280</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>3514836; 3835844</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>3556633; 3836531</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>3893732; 4191771</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>3304498; 3673634</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>355654; 384924</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>299485; 328588</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
